--- a/TechSoc Fader Wing Pin Assignment.xlsx
+++ b/TechSoc Fader Wing Pin Assignment.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10602"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Developer/OSC-Fader-Wing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8BB2B1-7315-4540-94C2-CBF8E3557280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F4D994-BC6E-2D4C-9A6B-AD15A2C7A183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{75A92466-4DFE-4CBF-B36A-22B3EE96C63C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{75A92466-4DFE-4CBF-B36A-22B3EE96C63C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,18 +575,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DDB77B-4624-4B9D-9C84-F9C8C2FFBA3F}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B39"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -593,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -601,7 +602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -609,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -617,7 +618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -628,7 +629,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -639,7 +640,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -653,7 +654,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -667,10 +668,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D12">
         <v>4</v>
       </c>
@@ -678,12 +682,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>38</v>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -692,12 +696,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
-        <v>39</v>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -706,12 +710,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
-        <v>40</v>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D15">
         <v>7</v>
@@ -720,12 +724,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
-        <v>41</v>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -734,24 +738,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
-        <v>42</v>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D17">
         <v>9</v>
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10</v>
       </c>
-      <c r="B18" t="s">
-        <v>43</v>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -760,12 +764,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>11</v>
@@ -774,12 +778,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>12</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
+      <c r="B20" t="s">
+        <v>38</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -788,12 +792,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>13</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
+      <c r="B21" t="s">
+        <v>39</v>
       </c>
       <c r="D21">
         <v>13</v>
@@ -802,12 +806,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>14</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
+      <c r="B22" t="s">
+        <v>40</v>
       </c>
       <c r="D22">
         <v>14</v>
@@ -816,50 +820,47 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>15</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>44</v>
+      <c r="B23" t="s">
+        <v>41</v>
       </c>
       <c r="D23">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>16</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>17</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>18</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20</v>
       </c>
@@ -867,7 +868,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>21</v>
       </c>
@@ -875,23 +876,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>22</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>23</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>24</v>
       </c>
@@ -899,7 +900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>25</v>
       </c>
@@ -907,7 +908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>26</v>
       </c>
@@ -915,7 +916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>27</v>
       </c>
@@ -923,7 +924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>28</v>
       </c>
@@ -931,7 +932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>29</v>
       </c>
@@ -939,7 +940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>30</v>
       </c>
@@ -947,7 +948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>31</v>
       </c>
@@ -955,7 +956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>32</v>
       </c>
@@ -963,7 +964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>33</v>
       </c>
@@ -971,7 +972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>34</v>
       </c>
@@ -979,7 +980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>35</v>
       </c>
@@ -987,7 +988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>36</v>
       </c>
@@ -995,7 +996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>37</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>38</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>39</v>
       </c>
@@ -1019,7 +1020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>40</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>41</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>42</v>
       </c>
@@ -1043,7 +1044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>43</v>
       </c>
@@ -1051,7 +1052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>44</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>45</v>
       </c>
@@ -1067,7 +1068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>46</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>47</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>48</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>49</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>50</v>
       </c>
@@ -1107,7 +1108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>51</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>52</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>53</v>
       </c>
